--- a/inst/extdata/alanine_three_peak_groups_corrected.xlsx
+++ b/inst/extdata/alanine_three_peak_groups_corrected.xlsx
@@ -498,11 +498,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -591,11 +586,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -684,11 +674,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -777,11 +762,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -870,11 +850,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -963,11 +938,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B7">
         <v>2</v>
       </c>
@@ -1056,11 +1026,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B8">
         <v>2</v>
       </c>
@@ -1149,11 +1114,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B9">
         <v>2</v>
       </c>
@@ -1242,11 +1202,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B10">
         <v>3</v>
       </c>
@@ -1335,11 +1290,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B11">
         <v>3</v>
       </c>
@@ -1428,11 +1378,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B12">
         <v>3</v>
       </c>
@@ -1521,11 +1466,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="B13">
         <v>3</v>
       </c>
@@ -1713,43 +1653,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8865.35334200278</v>
+        <v>8865.353341831578</v>
       </c>
       <c r="D2">
-        <v>3886237.595343229</v>
+        <v>3886237.595356067</v>
       </c>
       <c r="E2">
-        <v>3850063.701697593</v>
+        <v>3850063.701710307</v>
       </c>
       <c r="F2">
-        <v>3932445.607943406</v>
+        <v>3932445.607956403</v>
       </c>
       <c r="G2">
-        <v>4073756.301420258</v>
+        <v>4073756.301433716</v>
       </c>
       <c r="H2">
-        <v>3687068.666844273</v>
+        <v>3687068.666856451</v>
       </c>
       <c r="I2">
-        <v>3638259.31744024</v>
+        <v>3638259.317452259</v>
       </c>
       <c r="J2">
-        <v>7049795.682185658</v>
+        <v>7049795.68220896</v>
       </c>
       <c r="K2">
-        <v>6113068.909937986</v>
+        <v>6113068.909958187</v>
       </c>
       <c r="L2">
-        <v>5907518.704840264</v>
+        <v>5907518.704859781</v>
       </c>
       <c r="M2">
-        <v>6305922.597608782</v>
+        <v>6305922.597629621</v>
       </c>
       <c r="N2">
-        <v>67225.70950405455</v>
+        <v>67225.70950275632</v>
       </c>
       <c r="O2">
-        <v>5327713.261319425</v>
+        <v>5327713.261337032</v>
       </c>
     </row>
     <row r="3">
@@ -1765,40 +1705,40 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>436080.2275277436</v>
+        <v>436080.2236725428</v>
       </c>
       <c r="E3">
-        <v>356796.8949270421</v>
+        <v>356796.8911084856</v>
       </c>
       <c r="F3">
-        <v>383741.9497116542</v>
+        <v>383741.945811197</v>
       </c>
       <c r="G3">
-        <v>223170.2567239417</v>
+        <v>223170.2526850892</v>
       </c>
       <c r="H3">
-        <v>157034.0695257193</v>
+        <v>157034.0658706861</v>
       </c>
       <c r="I3">
-        <v>244712.8627877029</v>
+        <v>244712.8591801725</v>
       </c>
       <c r="J3">
-        <v>482579.4757004026</v>
+        <v>482579.4687100651</v>
       </c>
       <c r="K3">
-        <v>369313.8580233282</v>
+        <v>369313.8519623076</v>
       </c>
       <c r="L3">
-        <v>404760.6638307959</v>
+        <v>404760.6579731019</v>
       </c>
       <c r="M3">
-        <v>365688.0767518433</v>
+        <v>365688.0704997532</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>325340.2342002603</v>
+        <v>325340.2289178644</v>
       </c>
     </row>
     <row r="4">
@@ -1814,40 +1754,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>679623.4893716758</v>
+        <v>679623.874891746</v>
       </c>
       <c r="E4">
-        <v>500889.3264818747</v>
+        <v>500889.7083374314</v>
       </c>
       <c r="F4">
-        <v>534102.5109127958</v>
+        <v>534102.9009584524</v>
       </c>
       <c r="G4">
-        <v>408149.9671462279</v>
+        <v>408150.3710314261</v>
       </c>
       <c r="H4">
-        <v>366633.4053428622</v>
+        <v>366633.770846109</v>
       </c>
       <c r="I4">
-        <v>277813.7638666113</v>
+        <v>277814.1246195008</v>
       </c>
       <c r="J4">
-        <v>634381.3383419922</v>
+        <v>634382.0373756116</v>
       </c>
       <c r="K4">
-        <v>504406.3891594088</v>
+        <v>504406.9952613011</v>
       </c>
       <c r="L4">
-        <v>458342.4418681115</v>
+        <v>458343.0276373018</v>
       </c>
       <c r="M4">
-        <v>563314.0805346265</v>
+        <v>563314.705743309</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>492356.2443826555</v>
+        <v>492356.772621993</v>
       </c>
     </row>
     <row r="5">
@@ -1863,40 +1803,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>34253044.37524629</v>
+        <v>34253031.52457725</v>
       </c>
       <c r="E5">
-        <v>36273720.75132071</v>
+        <v>36273708.02280214</v>
       </c>
       <c r="F5">
-        <v>36764741.86033127</v>
+        <v>36764728.85880938</v>
       </c>
       <c r="G5">
-        <v>14189226.52631009</v>
+        <v>14189213.06347014</v>
       </c>
       <c r="H5">
-        <v>13490399.18179068</v>
+        <v>13490386.99834912</v>
       </c>
       <c r="I5">
-        <v>13934968.60730816</v>
+        <v>13934956.58221184</v>
       </c>
       <c r="J5">
-        <v>20503745.42394409</v>
+        <v>20503722.12282344</v>
       </c>
       <c r="K5">
-        <v>18210870.78974701</v>
+        <v>18210850.5863506</v>
       </c>
       <c r="L5">
-        <v>19236726.45081068</v>
+        <v>19236706.92517099</v>
       </c>
       <c r="M5">
-        <v>22202635.21270723</v>
+        <v>22202614.37241783</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19421745.12377906</v>
+        <v>19421727.51580114</v>
       </c>
     </row>
     <row r="6">
@@ -1909,43 +1849,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7784.139413574623</v>
+        <v>7784.1394134243</v>
       </c>
       <c r="D6">
-        <v>2104752.849699718</v>
+        <v>2104752.84970667</v>
       </c>
       <c r="E6">
-        <v>2145991.563388491</v>
+        <v>2145991.563395578</v>
       </c>
       <c r="F6">
-        <v>1913303.72825923</v>
+        <v>1913303.728222282</v>
       </c>
       <c r="G6">
-        <v>1347514.894601013</v>
+        <v>1347514.894536031</v>
       </c>
       <c r="H6">
-        <v>1198329.619435241</v>
+        <v>1198329.619384652</v>
       </c>
       <c r="I6">
-        <v>1345430.057746471</v>
+        <v>1345430.057750914</v>
       </c>
       <c r="J6">
-        <v>1218375.167268876</v>
+        <v>1218375.167272901</v>
       </c>
       <c r="K6">
-        <v>1068548.971124477</v>
+        <v>1068548.971128006</v>
       </c>
       <c r="L6">
-        <v>1121707.383685401</v>
+        <v>1121707.383689106</v>
       </c>
       <c r="M6">
-        <v>1530212.011791521</v>
+        <v>1530212.011796575</v>
       </c>
       <c r="N6">
-        <v>101994.1320789967</v>
+        <v>101994.132077027</v>
       </c>
       <c r="O6">
-        <v>1381829.534420191</v>
+        <v>1381829.534424755</v>
       </c>
     </row>
     <row r="7">
@@ -1961,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3086.554468832678</v>
+        <v>3086.552383248591</v>
       </c>
       <c r="E7">
-        <v>5991.036392701561</v>
+        <v>5991.034266227757</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1976,25 +1916,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5251.782576988856</v>
+        <v>5251.781243777514</v>
       </c>
       <c r="J7">
-        <v>14274.04984552013</v>
+        <v>14274.04863811585</v>
       </c>
       <c r="K7">
-        <v>577.1923093202969</v>
+        <v>577.191250511788</v>
       </c>
       <c r="L7">
-        <v>14319.24977775696</v>
+        <v>14319.24866614065</v>
       </c>
       <c r="M7">
-        <v>5075.996544514653</v>
+        <v>5075.995028209897</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14729.6396079855</v>
+        <v>14729.63823861667</v>
       </c>
     </row>
     <row r="8">
@@ -2010,40 +1950,40 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>34601.75774401377</v>
+        <v>34601.96630243654</v>
       </c>
       <c r="E8">
-        <v>17334.98384592176</v>
+        <v>17335.19649330006</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>10832.62284371974</v>
+        <v>10832.75631041781</v>
       </c>
       <c r="H8">
-        <v>7009.229519548927</v>
+        <v>7009.348209936662</v>
       </c>
       <c r="I8">
-        <v>45651.40151866979</v>
+        <v>45651.53483979483</v>
       </c>
       <c r="J8">
-        <v>37521.24907495895</v>
+        <v>37521.36981540549</v>
       </c>
       <c r="K8">
-        <v>29739.59267566224</v>
+        <v>29739.69855652325</v>
       </c>
       <c r="L8">
-        <v>11087.84538116991</v>
+        <v>11087.9565428108</v>
       </c>
       <c r="M8">
-        <v>36744.17173627538</v>
+        <v>36744.32336674844</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6869.504335434049</v>
+        <v>6869.641272317529</v>
       </c>
     </row>
     <row r="9">
@@ -2059,40 +1999,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1770732.653035037</v>
+        <v>1770725.701087611</v>
       </c>
       <c r="E9">
-        <v>1817881.677541162</v>
+        <v>1817874.58929522</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>593706.0847092754</v>
+        <v>593701.6339720144</v>
       </c>
       <c r="H9">
-        <v>621777.6125651178</v>
+        <v>621773.6545758153</v>
       </c>
       <c r="I9">
-        <v>739877.071901615</v>
+        <v>739872.6278641141</v>
       </c>
       <c r="J9">
-        <v>967263.6502363398</v>
+        <v>967259.6255547885</v>
       </c>
       <c r="K9">
-        <v>737062.8568431401</v>
+        <v>737059.3274811071</v>
       </c>
       <c r="L9">
-        <v>838968.7572366769</v>
+        <v>838965.0518486471</v>
       </c>
       <c r="M9">
-        <v>897123.427315206</v>
+        <v>897118.3729661049</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>897838.6380547838</v>
+        <v>897834.0734920013</v>
       </c>
     </row>
     <row r="10">
@@ -2105,43 +2045,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7776.989359799472</v>
+        <v>7776.989359649287</v>
       </c>
       <c r="D10">
-        <v>1234413.468148817</v>
+        <v>1234413.468053374</v>
       </c>
       <c r="E10">
-        <v>1193898.017538277</v>
+        <v>1193898.01744546</v>
       </c>
       <c r="F10">
-        <v>1253162.479598486</v>
+        <v>1253162.47951003</v>
       </c>
       <c r="G10">
-        <v>752132.4215104566</v>
+        <v>752132.4214538693</v>
       </c>
       <c r="H10">
-        <v>830733.8333830606</v>
+        <v>830733.8333205136</v>
       </c>
       <c r="I10">
-        <v>786650.8048243299</v>
+        <v>786650.8047656715</v>
       </c>
       <c r="J10">
-        <v>1802261.018792555</v>
+        <v>1802261.018658855</v>
       </c>
       <c r="K10">
-        <v>1661232.481040288</v>
+        <v>1661232.480917053</v>
       </c>
       <c r="L10">
-        <v>1478168.048885914</v>
+        <v>1478168.048776234</v>
       </c>
       <c r="M10">
-        <v>2128298.294976929</v>
+        <v>2128298.294819735</v>
       </c>
       <c r="N10">
-        <v>11322.25490352967</v>
+        <v>11322.25490331102</v>
       </c>
       <c r="O10">
-        <v>2013103.178527439</v>
+        <v>2013103.178378827</v>
       </c>
     </row>
     <row r="11">
@@ -2206,40 +2146,40 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>400114.6937612711</v>
+        <v>400114.816029534</v>
       </c>
       <c r="E12">
-        <v>412173.0081926195</v>
+        <v>412173.1264480926</v>
       </c>
       <c r="F12">
-        <v>464218.9720007078</v>
+        <v>464219.0961266248</v>
       </c>
       <c r="G12">
-        <v>165612.4063670324</v>
+        <v>165612.4808647289</v>
       </c>
       <c r="H12">
-        <v>185748.8879795151</v>
+        <v>185748.9702625997</v>
       </c>
       <c r="I12">
-        <v>146432.2193436261</v>
+        <v>146432.2972600578</v>
       </c>
       <c r="J12">
-        <v>303737.521048587</v>
+        <v>303737.6995591573</v>
       </c>
       <c r="K12">
-        <v>280095.014385437</v>
+        <v>280095.1789273949</v>
       </c>
       <c r="L12">
-        <v>249533.9104950988</v>
+        <v>249534.0569048779</v>
       </c>
       <c r="M12">
-        <v>323541.5606615872</v>
+        <v>323541.7714651901</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>301666.8075784187</v>
+        <v>301667.0069721413</v>
       </c>
     </row>
     <row r="13">
@@ -2255,40 +2195,40 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>241875.8801990134</v>
+        <v>241871.8028991181</v>
       </c>
       <c r="E13">
-        <v>260447.7516662641</v>
+        <v>260443.8081815515</v>
       </c>
       <c r="F13">
-        <v>287305.1914330266</v>
+        <v>287301.0521853535</v>
       </c>
       <c r="G13">
-        <v>89768.02161410202</v>
+        <v>89765.53732710025</v>
       </c>
       <c r="H13">
-        <v>68160.86467696942</v>
+        <v>68158.12076933954</v>
       </c>
       <c r="I13">
-        <v>113541.9621979798</v>
+        <v>113539.3639058316</v>
       </c>
       <c r="J13">
-        <v>55982.37387126497</v>
+        <v>55976.42104970005</v>
       </c>
       <c r="K13">
-        <v>34045.5012054366</v>
+        <v>34040.01419750356</v>
       </c>
       <c r="L13">
-        <v>96802.22353682664</v>
+        <v>96797.34118565948</v>
       </c>
       <c r="M13">
-        <v>79672.17568389892</v>
+        <v>79665.14598120011</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>117327.7193266422</v>
+        <v>117321.0701111123</v>
       </c>
     </row>
   </sheetData>
@@ -2394,40 +2334,40 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.09899984746604613</v>
+        <v>0.09899987891278972</v>
       </c>
       <c r="E2">
-        <v>0.09394645039178803</v>
+        <v>0.09394647870448043</v>
       </c>
       <c r="F2">
-        <v>0.0944957969673588</v>
+        <v>0.09449582561355103</v>
       </c>
       <c r="G2">
-        <v>0.2156076511684391</v>
+        <v>0.2156078002342111</v>
       </c>
       <c r="H2">
-        <v>0.2082956036129835</v>
+        <v>0.208295742722547</v>
       </c>
       <c r="I2">
-        <v>0.201055960783808</v>
+        <v>0.2010560904231773</v>
       </c>
       <c r="J2">
-        <v>0.2458902080547647</v>
+        <v>0.2458904019604281</v>
       </c>
       <c r="K2">
-        <v>0.2426046276847977</v>
+        <v>0.2426048164278708</v>
       </c>
       <c r="L2">
-        <v>0.22714806005884</v>
+        <v>0.2271482255314434</v>
       </c>
       <c r="M2">
-        <v>0.2142134947512215</v>
+        <v>0.2142136419000247</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.2083811550297893</v>
+        <v>0.2083812942792576</v>
       </c>
     </row>
     <row r="3">
@@ -2443,40 +2383,40 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01110891317091291</v>
+        <v>0.01110891660135064</v>
       </c>
       <c r="E3">
-        <v>0.008706297969674532</v>
+        <v>0.008706300500289832</v>
       </c>
       <c r="F3">
-        <v>0.009221234057138102</v>
+        <v>0.009221236758777222</v>
       </c>
       <c r="G3">
-        <v>0.01181151038566819</v>
+        <v>0.01181151833805345</v>
       </c>
       <c r="H3">
-        <v>0.008871412293945337</v>
+        <v>0.008871418012174875</v>
       </c>
       <c r="I3">
-        <v>0.01352321960891836</v>
+        <v>0.01352322812918588</v>
       </c>
       <c r="J3">
-        <v>0.01683191585009772</v>
+        <v>0.01683192887964473</v>
       </c>
       <c r="K3">
-        <v>0.01465667283398817</v>
+        <v>0.01465668399609098</v>
       </c>
       <c r="L3">
-        <v>0.01556331924974914</v>
+        <v>0.01556333036201734</v>
       </c>
       <c r="M3">
-        <v>0.01242249959420215</v>
+        <v>0.01242250791511319</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01272492914971982</v>
+        <v>0.01272493744642723</v>
       </c>
     </row>
     <row r="4">
@@ -2492,40 +2432,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01731304896611592</v>
+        <v>0.01731306428637418</v>
       </c>
       <c r="E4">
-        <v>0.01222233653987517</v>
+        <v>0.01222234954105096</v>
       </c>
       <c r="F4">
-        <v>0.01283436503966476</v>
+        <v>0.01283437830304535</v>
       </c>
       <c r="G4">
-        <v>0.02160174768191061</v>
+        <v>0.02160178399279605</v>
       </c>
       <c r="H4">
-        <v>0.02071242316621618</v>
+        <v>0.0207124576474647</v>
       </c>
       <c r="I4">
-        <v>0.01535242772427394</v>
+        <v>0.01535245755914075</v>
       </c>
       <c r="J4">
-        <v>0.02212662129558502</v>
+        <v>0.02212666312591453</v>
       </c>
       <c r="K4">
-        <v>0.02001798540908202</v>
+        <v>0.02001802503664871</v>
       </c>
       <c r="L4">
-        <v>0.01762357458600519</v>
+        <v>0.01762360994758689</v>
       </c>
       <c r="M4">
-        <v>0.01913589581319178</v>
+        <v>0.01913593019655433</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01925737325908157</v>
+        <v>0.01925740678851423</v>
       </c>
     </row>
     <row r="5">
@@ -2541,40 +2481,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.872578190396925</v>
+        <v>0.8725781401994854</v>
       </c>
       <c r="E5">
-        <v>0.8851249150986623</v>
+        <v>0.8851248712541788</v>
       </c>
       <c r="F5">
-        <v>0.8834486039358384</v>
+        <v>0.8834485593246263</v>
       </c>
       <c r="G5">
-        <v>0.7509790907639822</v>
+        <v>0.7509788974349393</v>
       </c>
       <c r="H5">
-        <v>0.762120560926855</v>
+        <v>0.7621203816178134</v>
       </c>
       <c r="I5">
-        <v>0.7700683918829996</v>
+        <v>0.7700682238884961</v>
       </c>
       <c r="J5">
-        <v>0.7151512547995525</v>
+        <v>0.7151510060340126</v>
       </c>
       <c r="K5">
-        <v>0.7227207140721321</v>
+        <v>0.7227204745393896</v>
       </c>
       <c r="L5">
-        <v>0.7396650461054056</v>
+        <v>0.7396648341589523</v>
       </c>
       <c r="M5">
-        <v>0.7542281098413847</v>
+        <v>0.7542279199883077</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7596365425614093</v>
+        <v>0.7596363614858008</v>
       </c>
     </row>
     <row r="6">
@@ -2590,40 +2530,40 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5378633685168676</v>
+        <v>0.5378642956806794</v>
       </c>
       <c r="E6">
-        <v>0.5382202952053369</v>
+        <v>0.5382212236116231</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6903062974879827</v>
+        <v>0.6903078242009383</v>
       </c>
       <c r="H6">
-        <v>0.655858367363401</v>
+        <v>0.6558597455044513</v>
       </c>
       <c r="I6">
-        <v>0.6298209727246293</v>
+        <v>0.6298222440537559</v>
       </c>
       <c r="J6">
-        <v>0.544541248533044</v>
+        <v>0.5445421989610247</v>
       </c>
       <c r="K6">
-        <v>0.5820209803288605</v>
+        <v>0.5820220659698246</v>
       </c>
       <c r="L6">
-        <v>0.5647836723594654</v>
+        <v>0.5647846947705373</v>
       </c>
       <c r="M6">
-        <v>0.6197308939190582</v>
+        <v>0.6197321248312972</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.6004645894727338</v>
+        <v>0.6004657451236868</v>
       </c>
     </row>
     <row r="7">
@@ -2639,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0007887598698127361</v>
+        <v>0.0007887606965012036</v>
       </c>
       <c r="E7">
-        <v>0.001502567592005961</v>
+        <v>0.001502569650537756</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2654,25 +2594,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002458457644924024</v>
+        <v>0.002458461983348782</v>
       </c>
       <c r="J7">
-        <v>0.006379651468049904</v>
+        <v>0.006379662063265947</v>
       </c>
       <c r="K7">
-        <v>0.0003143871200917979</v>
+        <v>0.0003143871297989711</v>
       </c>
       <c r="L7">
-        <v>0.007209793385101074</v>
+        <v>0.007209805877047838</v>
       </c>
       <c r="M7">
-        <v>0.0020557621112771</v>
+        <v>0.002055765580334378</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006400664322174515</v>
+        <v>0.006400676045786837</v>
       </c>
     </row>
     <row r="8">
@@ -2688,40 +2628,40 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008842376899242617</v>
+        <v>0.008842445438199733</v>
       </c>
       <c r="E8">
-        <v>0.004347659274205045</v>
+        <v>0.004347720106321785</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.005549347021908827</v>
+        <v>0.005549427667972652</v>
       </c>
       <c r="H8">
-        <v>0.003836224820457377</v>
+        <v>0.003836297842226249</v>
       </c>
       <c r="I8">
-        <v>0.02137027483902788</v>
+        <v>0.02137038038629939</v>
       </c>
       <c r="J8">
-        <v>0.01676976711828244</v>
+        <v>0.01676985035163165</v>
       </c>
       <c r="K8">
-        <v>0.016198665060203</v>
+        <v>0.01619875294710656</v>
       </c>
       <c r="L8">
-        <v>0.00558276973479156</v>
+        <v>0.005582835811479378</v>
       </c>
       <c r="M8">
-        <v>0.01488127019064321</v>
+        <v>0.01488136115780964</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002985096206087647</v>
+        <v>0.002985161456280333</v>
       </c>
     </row>
     <row r="9">
@@ -2737,40 +2677,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4525054947140771</v>
+        <v>0.4525044981846197</v>
       </c>
       <c r="E9">
-        <v>0.4559294779284521</v>
+        <v>0.4559284866315174</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3041443554901085</v>
+        <v>0.304142748131089</v>
       </c>
       <c r="H9">
-        <v>0.3403054078161416</v>
+        <v>0.3403039566533224</v>
       </c>
       <c r="I9">
-        <v>0.3463502947914187</v>
+        <v>0.3463489135765959</v>
       </c>
       <c r="J9">
-        <v>0.4323093328806236</v>
+        <v>0.4323082886240776</v>
       </c>
       <c r="K9">
-        <v>0.4014659674908447</v>
+        <v>0.4014647939532699</v>
       </c>
       <c r="L9">
-        <v>0.422423764520642</v>
+        <v>0.4224226635409355</v>
       </c>
       <c r="M9">
-        <v>0.3633320737790216</v>
+        <v>0.3633307484305587</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3901496499990041</v>
+        <v>0.390148417374246</v>
       </c>
     </row>
     <row r="10">
@@ -2786,40 +2726,40 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.6578612284171594</v>
+        <v>0.6578626150240625</v>
       </c>
       <c r="E10">
-        <v>0.639638899964968</v>
+        <v>0.6396402108207813</v>
       </c>
       <c r="F10">
-        <v>0.625116391109882</v>
+        <v>0.6251176431211615</v>
       </c>
       <c r="G10">
-        <v>0.7465238998093136</v>
+        <v>0.7465256853500839</v>
       </c>
       <c r="H10">
-        <v>0.7659048963875705</v>
+        <v>0.7659067758451714</v>
       </c>
       <c r="I10">
-        <v>0.7516071325181318</v>
+        <v>0.7516089424523311</v>
       </c>
       <c r="J10">
-        <v>0.833615601026669</v>
+        <v>0.8336178274784894</v>
       </c>
       <c r="K10">
-        <v>0.8409715450567489</v>
+        <v>0.840973810975593</v>
       </c>
       <c r="L10">
-        <v>0.8101752041598244</v>
+        <v>0.8101773071593443</v>
       </c>
       <c r="M10">
-        <v>0.8407221726160018</v>
+        <v>0.8407244371875292</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0.8277229874568089</v>
+        <v>0.827725182538988</v>
       </c>
     </row>
     <row r="11">
@@ -2884,40 +2824,40 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2132348283110376</v>
+        <v>0.2132353429342847</v>
       </c>
       <c r="E12">
-        <v>0.2208244638006751</v>
+        <v>0.2208249797248384</v>
       </c>
       <c r="F12">
-        <v>0.2315668504173531</v>
+        <v>0.2315673761442112</v>
       </c>
       <c r="G12">
-        <v>0.1643774632260059</v>
+        <v>0.1643779303398268</v>
       </c>
       <c r="H12">
-        <v>0.1712533871681816</v>
+        <v>0.1712538832826123</v>
       </c>
       <c r="I12">
-        <v>0.1399089657242603</v>
+        <v>0.139909377093032</v>
       </c>
       <c r="J12">
-        <v>0.1404903804294134</v>
+        <v>0.1404908382350951</v>
       </c>
       <c r="K12">
-        <v>0.1417934814655846</v>
+        <v>0.1417939468221987</v>
       </c>
       <c r="L12">
-        <v>0.1367680670898937</v>
+        <v>0.1367685023601432</v>
       </c>
       <c r="M12">
-        <v>0.1278056579065813</v>
+        <v>0.127806085445728</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.1240356449926313</v>
+        <v>0.1240360559229208</v>
       </c>
     </row>
     <row r="13">
@@ -2933,40 +2873,40 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.128903943271803</v>
+        <v>0.1289020420416528</v>
       </c>
       <c r="E13">
-        <v>0.1395366362343569</v>
+        <v>0.1395348094543803</v>
       </c>
       <c r="F13">
-        <v>0.1433167584727649</v>
+        <v>0.1433149807346274</v>
       </c>
       <c r="G13">
-        <v>0.08909863696468046</v>
+        <v>0.08909638431008937</v>
       </c>
       <c r="H13">
-        <v>0.06284171644424802</v>
+        <v>0.06283934087221628</v>
       </c>
       <c r="I13">
-        <v>0.1084839017576078</v>
+        <v>0.1084816804546368</v>
       </c>
       <c r="J13">
-        <v>0.02589401854391759</v>
+        <v>0.0258913342864155</v>
       </c>
       <c r="K13">
-        <v>0.01723497347766647</v>
+        <v>0.0172322422022082</v>
       </c>
       <c r="L13">
-        <v>0.05305672875028195</v>
+        <v>0.05305419048051254</v>
       </c>
       <c r="M13">
-        <v>0.03147216947741689</v>
+        <v>0.03146947736674275</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.04824136755055973</v>
+        <v>0.04823876153809127</v>
       </c>
     </row>
   </sheetData>
@@ -3061,43 +3001,43 @@
         </is>
       </c>
       <c r="B2">
-        <v>8865.35334200278</v>
+        <v>8865.353341831578</v>
       </c>
       <c r="C2">
-        <v>39254985.68748894</v>
+        <v>39254973.21849761</v>
       </c>
       <c r="D2">
-        <v>40981470.67442722</v>
+        <v>40981458.32395836</v>
       </c>
       <c r="E2">
-        <v>41615031.92889913</v>
+        <v>41615019.31353544</v>
       </c>
       <c r="F2">
-        <v>18894303.05160052</v>
+        <v>18894289.98862037</v>
       </c>
       <c r="G2">
-        <v>17701135.32350354</v>
+        <v>17701123.50192237</v>
       </c>
       <c r="H2">
-        <v>18095754.55140272</v>
+        <v>18095742.88346377</v>
       </c>
       <c r="I2">
-        <v>28670501.92017214</v>
+        <v>28670479.31111807</v>
       </c>
       <c r="J2">
-        <v>25197659.94686773</v>
+        <v>25197640.34353239</v>
       </c>
       <c r="K2">
-        <v>26007348.26134985</v>
+        <v>26007329.31564117</v>
       </c>
       <c r="L2">
-        <v>29437559.96760248</v>
+        <v>29437539.74629051</v>
       </c>
       <c r="M2">
-        <v>67225.70950405455</v>
+        <v>67225.70950275632</v>
       </c>
       <c r="N2">
-        <v>25567154.8636814</v>
+        <v>25567137.77867803</v>
       </c>
     </row>
     <row r="3">
@@ -3107,43 +3047,43 @@
         </is>
       </c>
       <c r="B3">
-        <v>7784.139413574623</v>
+        <v>7784.1394134243</v>
       </c>
       <c r="C3">
-        <v>3913173.814947601</v>
+        <v>3913167.069479966</v>
       </c>
       <c r="D3">
-        <v>3987199.261168276</v>
+        <v>3987192.383450326</v>
       </c>
       <c r="E3">
-        <v>1913303.72825923</v>
+        <v>1913303.728222282</v>
       </c>
       <c r="F3">
-        <v>1952053.602154008</v>
+        <v>1952049.284818464</v>
       </c>
       <c r="G3">
-        <v>1827116.461519908</v>
+        <v>1827112.622170404</v>
       </c>
       <c r="H3">
-        <v>2136210.313743745</v>
+        <v>2136206.001698601</v>
       </c>
       <c r="I3">
-        <v>2237434.116425695</v>
+        <v>2237430.211281211</v>
       </c>
       <c r="J3">
-        <v>1835928.6129526</v>
+        <v>1835925.188416148</v>
       </c>
       <c r="K3">
-        <v>1986083.236081004</v>
+        <v>1986079.640746704</v>
       </c>
       <c r="L3">
-        <v>2469155.607387517</v>
+        <v>2469150.703157638</v>
       </c>
       <c r="M3">
-        <v>101994.1320789967</v>
+        <v>101994.132077027</v>
       </c>
       <c r="N3">
-        <v>2301267.316418394</v>
+        <v>2301262.887427691</v>
       </c>
     </row>
     <row r="4">
@@ -3153,43 +3093,43 @@
         </is>
       </c>
       <c r="B4">
-        <v>7776.989359799472</v>
+        <v>7776.989359649287</v>
       </c>
       <c r="C4">
-        <v>1876404.042109101</v>
+        <v>1876400.086982026</v>
       </c>
       <c r="D4">
-        <v>1866518.77739716</v>
+        <v>1866514.952075104</v>
       </c>
       <c r="E4">
-        <v>2004686.64303222</v>
+        <v>2004682.627822009</v>
       </c>
       <c r="F4">
-        <v>1007512.849491591</v>
+        <v>1007510.439645698</v>
       </c>
       <c r="G4">
-        <v>1084643.586039545</v>
+        <v>1084640.924352453</v>
       </c>
       <c r="H4">
-        <v>1046624.986365936</v>
+        <v>1046622.465931561</v>
       </c>
       <c r="I4">
-        <v>2161980.913712407</v>
+        <v>2161975.139267712</v>
       </c>
       <c r="J4">
-        <v>1975372.996631162</v>
+        <v>1975367.674041951</v>
       </c>
       <c r="K4">
-        <v>1824504.18291784</v>
+        <v>1824499.446866772</v>
       </c>
       <c r="L4">
-        <v>2531512.031322415</v>
+        <v>2531505.212266125</v>
       </c>
       <c r="M4">
-        <v>11322.25490352967</v>
+        <v>11322.25490331102</v>
       </c>
       <c r="N4">
-        <v>2432097.7054325</v>
+        <v>2432091.25546208</v>
       </c>
     </row>
   </sheetData>
